--- a/po_analysis_by_asin/B0BNWJV682_po_data.xlsx
+++ b/po_analysis_by_asin/B0BNWJV682_po_data.xlsx
@@ -543,7 +543,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +614,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>122</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BNWJV682_po_data.xlsx
+++ b/po_analysis_by_asin/B0BNWJV682_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -573,7 +574,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -615,6 +616,327 @@
       </c>
       <c r="B6" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.807782929489219</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.25320906764547</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.975220806966207</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.13866083452871</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5.902925996877294</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.05008063370885</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.219092972426244</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.50839964890155</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-4.517930011416527</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.92066515664683</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.832255498419298</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.64028982069799</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.647163436808178</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.99966655099087</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.361227489599115</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.91248662049066</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.143756174505802</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28.91755366826092</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.317257217880688</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30.53421963434988</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.385310748365401</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.72266931649025</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.615325412112712</v>
+      </c>
+      <c r="D13" t="n">
+        <v>32.93419363834347</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.123061331883441</v>
+      </c>
+      <c r="D14" t="n">
+        <v>33.40960600684971</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.158186238467137</v>
+      </c>
+      <c r="D15" t="n">
+        <v>34.74216240997216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.122131223200135</v>
+      </c>
+      <c r="D16" t="n">
+        <v>35.6715438298867</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10.22718747551384</v>
+      </c>
+      <c r="D17" t="n">
+        <v>36.05838282156031</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>24</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11.53947221532732</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37.18301915164773</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12.04045280439386</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.80745491508706</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.6713853148849</v>
+      </c>
+      <c r="D20" t="n">
+        <v>38.63725139101281</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12.76586277555504</v>
+      </c>
+      <c r="D21" t="n">
+        <v>39.87026625769131</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BNWJV682_po_data.xlsx
+++ b/po_analysis_by_asin/B0BNWJV682_po_data.xlsx
@@ -629,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,16 +648,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -666,12 +656,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-9.807782929489219</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.25320906764547</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -680,12 +664,6 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>-7.975220806966207</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.13866083452871</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -694,12 +672,6 @@
       <c r="B4" t="n">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>-5.902925996877294</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.05008063370885</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -708,12 +680,6 @@
       <c r="B5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
-        <v>-5.219092972426244</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.50839964890155</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -722,12 +688,6 @@
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
-        <v>-4.517930011416527</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.92066515664683</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -736,12 +696,6 @@
       <c r="B7" t="n">
         <v>11</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1.832255498419298</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23.64028982069799</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -750,12 +704,6 @@
       <c r="B8" t="n">
         <v>11</v>
       </c>
-      <c r="C8" t="n">
-        <v>-1.647163436808178</v>
-      </c>
-      <c r="D8" t="n">
-        <v>23.99966655099087</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -764,12 +712,6 @@
       <c r="B9" t="n">
         <v>16</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.361227489599115</v>
-      </c>
-      <c r="D9" t="n">
-        <v>28.91248662049066</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -778,12 +720,6 @@
       <c r="B10" t="n">
         <v>17</v>
       </c>
-      <c r="C10" t="n">
-        <v>4.143756174505802</v>
-      </c>
-      <c r="D10" t="n">
-        <v>28.91755366826092</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -792,12 +728,6 @@
       <c r="B11" t="n">
         <v>18</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.317257217880688</v>
-      </c>
-      <c r="D11" t="n">
-        <v>30.53421963434988</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -806,12 +736,6 @@
       <c r="B12" t="n">
         <v>18</v>
       </c>
-      <c r="C12" t="n">
-        <v>5.385310748365401</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30.72266931649025</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -820,12 +744,6 @@
       <c r="B13" t="n">
         <v>19</v>
       </c>
-      <c r="C13" t="n">
-        <v>5.615325412112712</v>
-      </c>
-      <c r="D13" t="n">
-        <v>32.93419363834347</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -834,12 +752,6 @@
       <c r="B14" t="n">
         <v>20</v>
       </c>
-      <c r="C14" t="n">
-        <v>7.123061331883441</v>
-      </c>
-      <c r="D14" t="n">
-        <v>33.40960600684971</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -848,12 +760,6 @@
       <c r="B15" t="n">
         <v>21</v>
       </c>
-      <c r="C15" t="n">
-        <v>7.158186238467137</v>
-      </c>
-      <c r="D15" t="n">
-        <v>34.74216240997216</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -862,12 +768,6 @@
       <c r="B16" t="n">
         <v>22</v>
       </c>
-      <c r="C16" t="n">
-        <v>9.122131223200135</v>
-      </c>
-      <c r="D16" t="n">
-        <v>35.6715438298867</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -876,12 +776,6 @@
       <c r="B17" t="n">
         <v>23</v>
       </c>
-      <c r="C17" t="n">
-        <v>10.22718747551384</v>
-      </c>
-      <c r="D17" t="n">
-        <v>36.05838282156031</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -890,12 +784,6 @@
       <c r="B18" t="n">
         <v>24</v>
       </c>
-      <c r="C18" t="n">
-        <v>11.53947221532732</v>
-      </c>
-      <c r="D18" t="n">
-        <v>37.18301915164773</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -904,12 +792,6 @@
       <c r="B19" t="n">
         <v>25</v>
       </c>
-      <c r="C19" t="n">
-        <v>12.04045280439386</v>
-      </c>
-      <c r="D19" t="n">
-        <v>37.80745491508706</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -918,12 +800,6 @@
       <c r="B20" t="n">
         <v>25</v>
       </c>
-      <c r="C20" t="n">
-        <v>11.6713853148849</v>
-      </c>
-      <c r="D20" t="n">
-        <v>38.63725139101281</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -931,12 +807,6 @@
       </c>
       <c r="B21" t="n">
         <v>26</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12.76586277555504</v>
-      </c>
-      <c r="D21" t="n">
-        <v>39.87026625769131</v>
       </c>
     </row>
   </sheetData>
